--- a/Rusland-kaart.xlsx
+++ b/Rusland-kaart.xlsx
@@ -384,11 +384,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1837,6 +1837,395 @@
         <v>61</v>
       </c>
     </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>60</v>
+      </c>
+      <c r="D63">
+        <v>53</v>
+      </c>
+      <c r="E63">
+        <v>62</v>
+      </c>
+      <c r="F63">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>61</v>
+      </c>
+      <c r="D64">
+        <v>54</v>
+      </c>
+      <c r="E64">
+        <v>63</v>
+      </c>
+      <c r="F64">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>71</v>
+      </c>
+      <c r="D65">
+        <v>70</v>
+      </c>
+      <c r="E65">
+        <v>62</v>
+      </c>
+      <c r="F65">
+        <v>54</v>
+      </c>
+      <c r="G65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>63</v>
+      </c>
+      <c r="D66">
+        <v>54</v>
+      </c>
+      <c r="E66">
+        <v>65</v>
+      </c>
+      <c r="F66">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>54</v>
+      </c>
+      <c r="D67">
+        <v>64</v>
+      </c>
+      <c r="E67">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>55</v>
+      </c>
+      <c r="D68">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>73</v>
+      </c>
+      <c r="D69">
+        <v>74</v>
+      </c>
+      <c r="E69">
+        <v>68</v>
+      </c>
+      <c r="F69">
+        <v>57</v>
+      </c>
+      <c r="G69">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>74</v>
+      </c>
+      <c r="D70">
+        <v>82</v>
+      </c>
+      <c r="E70">
+        <v>69</v>
+      </c>
+      <c r="F70">
+        <v>58</v>
+      </c>
+      <c r="G70">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>68</v>
+      </c>
+      <c r="D71">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>62</v>
+      </c>
+      <c r="D72">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>67</v>
+      </c>
+      <c r="D75">
+        <v>74</v>
+      </c>
+      <c r="E75">
+        <v>76</v>
+      </c>
+      <c r="F75">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>73</v>
+      </c>
+      <c r="D76">
+        <v>76</v>
+      </c>
+      <c r="E76">
+        <v>78</v>
+      </c>
+      <c r="F76">
+        <v>79</v>
+      </c>
+      <c r="G76">
+        <v>81</v>
+      </c>
+      <c r="H76">
+        <v>82</v>
+      </c>
+      <c r="I76">
+        <v>68</v>
+      </c>
+      <c r="J76">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>73</v>
+      </c>
+      <c r="D78">
+        <v>74</v>
+      </c>
+      <c r="E78">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>65</v>
+      </c>
+      <c r="D79">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>76</v>
+      </c>
+      <c r="D80">
+        <v>74</v>
+      </c>
+      <c r="E80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>78</v>
+      </c>
+      <c r="D81">
+        <v>74</v>
+      </c>
+      <c r="E81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>79</v>
+      </c>
+      <c r="D82">
+        <v>74</v>
+      </c>
+      <c r="E82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>80</v>
+      </c>
+      <c r="D83">
+        <v>79</v>
+      </c>
+      <c r="E83">
+        <v>74</v>
+      </c>
+      <c r="F83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>81</v>
+      </c>
+      <c r="D84">
+        <v>74</v>
+      </c>
+      <c r="E84">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
